--- a/Nebraska/Regulatory/NE_RegulatoryInfo Schema Mapping to WaDE_QA.xlsx
+++ b/Nebraska/Regulatory/NE_RegulatoryInfo Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF9C09-1C89-4930-8C85-89AE85274273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EA5A0-3C62-4E95-8675-15953412BA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -483,9 +483,6 @@
     <t>*get from geometry field</t>
   </si>
   <si>
-    <t>NRD_Name</t>
-  </si>
-  <si>
     <t>geometry</t>
   </si>
   <si>
@@ -499,12 +496,6 @@
   </si>
   <si>
     <t>Natural Resources Districts were created to solve flood control, soil erosion, irrigation run-off, and groundwater quantity and quality issues. Nebraska's NRDs are involved in a wide variety of projects and programs to conserve and protect the state's natural resources. NRDs are charged under state law with 12 areas of responsibility including flood control, soil erosion, groundwater management and many others.</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>NRD Net</t>
   </si>
   <si>
     <t>NRD_Name + "NRD"</t>
@@ -541,6 +532,15 @@
   </si>
   <si>
     <t>Office</t>
+  </si>
+  <si>
+    <t>NRD_Name_A</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>Create link input</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="123" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1734,9 +1734,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{3C2E7E67-07FB-4311-BD71-09D466579387}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{F0F54776-E7C7-483C-AACE-C2D92DD2EEC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2030,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>11</v>
@@ -2062,7 +2063,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>11</v>
@@ -2094,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>11</v>
@@ -2158,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="72" t="s">
         <v>11</v>
@@ -2190,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="72" t="s">
         <v>11</v>
@@ -2222,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" s="72" t="s">
         <v>11</v>
@@ -2347,7 +2348,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,10 +2514,10 @@
         <v>146</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="82" t="s">
         <v>11</v>
@@ -2543,10 +2544,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="109" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H7" s="82" t="s">
         <v>11</v>
@@ -2573,10 +2574,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="82" t="s">
         <v>11</v>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="119" t="s">
         <v>11</v>
@@ -2774,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="126" t="s">
         <v>11</v>
@@ -2901,13 +2902,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="109" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>11</v>
@@ -2932,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="108" t="s">
         <v>11</v>
@@ -2966,10 +2967,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="109" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>11</v>
@@ -2997,10 +2998,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>11</v>
@@ -3025,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>11</v>
@@ -3056,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F10" s="108" t="s">
         <v>11</v>
@@ -3087,14 +3088,12 @@
         <v>11</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F11" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G11" s="115"/>
       <c r="H11" s="72" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>11</v>
@@ -3214,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>11</v>
@@ -3405,7 +3404,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>11</v>
@@ -3438,7 +3437,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>11</v>
@@ -3471,7 +3470,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>11</v>
